--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.787273623607</v>
+        <v>47.00186300000001</v>
       </c>
       <c r="H2">
-        <v>46.787273623607</v>
+        <v>141.005589</v>
       </c>
       <c r="I2">
-        <v>0.1927063335898</v>
+        <v>0.1901796115079644</v>
       </c>
       <c r="J2">
-        <v>0.1927063335898</v>
+        <v>0.1901796115079644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.601816734156</v>
+        <v>19.78396633333334</v>
       </c>
       <c r="N2">
-        <v>19.601816734156</v>
+        <v>59.351899</v>
       </c>
       <c r="O2">
-        <v>0.2059030520893949</v>
+        <v>0.2044160189787881</v>
       </c>
       <c r="P2">
-        <v>0.2059030520893949</v>
+        <v>0.2044160189787881</v>
       </c>
       <c r="Q2">
-        <v>917.1155630607553</v>
+        <v>929.8832751959459</v>
       </c>
       <c r="R2">
-        <v>917.1155630607553</v>
+        <v>8368.949476763511</v>
       </c>
       <c r="S2">
-        <v>0.03967882224309691</v>
+        <v>0.03887575907539061</v>
       </c>
       <c r="T2">
-        <v>0.03967882224309691</v>
+        <v>0.03887575907539061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.787273623607</v>
+        <v>47.00186300000001</v>
       </c>
       <c r="H3">
-        <v>46.787273623607</v>
+        <v>141.005589</v>
       </c>
       <c r="I3">
-        <v>0.1927063335898</v>
+        <v>0.1901796115079644</v>
       </c>
       <c r="J3">
-        <v>0.1927063335898</v>
+        <v>0.1901796115079644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.1346428856231</v>
+        <v>21.164404</v>
       </c>
       <c r="N3">
-        <v>21.1346428856231</v>
+        <v>63.493212</v>
       </c>
       <c r="O3">
-        <v>0.2220042934789016</v>
+        <v>0.2186792646553098</v>
       </c>
       <c r="P3">
-        <v>0.2220042934789016</v>
+        <v>0.2186792646553098</v>
       </c>
       <c r="Q3">
-        <v>988.832319626867</v>
+        <v>994.7664172846522</v>
       </c>
       <c r="R3">
-        <v>988.832319626867</v>
+        <v>8952.897755561869</v>
       </c>
       <c r="S3">
-        <v>0.04278163343751309</v>
+        <v>0.04158833759699415</v>
       </c>
       <c r="T3">
-        <v>0.04278163343751309</v>
+        <v>0.04158833759699416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.787273623607</v>
+        <v>47.00186300000001</v>
       </c>
       <c r="H4">
-        <v>46.787273623607</v>
+        <v>141.005589</v>
       </c>
       <c r="I4">
-        <v>0.1927063335898</v>
+        <v>0.1901796115079644</v>
       </c>
       <c r="J4">
-        <v>0.1927063335898</v>
+        <v>0.1901796115079644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4557393890238</v>
+        <v>24.506957</v>
       </c>
       <c r="N4">
-        <v>24.4557393890238</v>
+        <v>73.520871</v>
       </c>
       <c r="O4">
-        <v>0.2568900347144099</v>
+        <v>0.2532158871896084</v>
       </c>
       <c r="P4">
-        <v>0.2568900347144099</v>
+        <v>0.2532158871896084</v>
       </c>
       <c r="Q4">
-        <v>1144.21737046188</v>
+        <v>1151.872635460891</v>
       </c>
       <c r="R4">
-        <v>1144.21737046188</v>
+        <v>10366.85371914802</v>
       </c>
       <c r="S4">
-        <v>0.04950433672557038</v>
+        <v>0.04815649905336427</v>
       </c>
       <c r="T4">
-        <v>0.04950433672557038</v>
+        <v>0.04815649905336428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.787273623607</v>
+        <v>47.00186300000001</v>
       </c>
       <c r="H5">
-        <v>46.787273623607</v>
+        <v>141.005589</v>
       </c>
       <c r="I5">
-        <v>0.1927063335898</v>
+        <v>0.1901796115079644</v>
       </c>
       <c r="J5">
-        <v>0.1927063335898</v>
+        <v>0.1901796115079644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.3713413939229</v>
+        <v>20.42407066666667</v>
       </c>
       <c r="N5">
-        <v>20.3713413939229</v>
+        <v>61.272212</v>
       </c>
       <c r="O5">
-        <v>0.2139863577468733</v>
+        <v>0.2110298383386912</v>
       </c>
       <c r="P5">
-        <v>0.2139863577468733</v>
+        <v>0.2110298383386912</v>
       </c>
       <c r="Q5">
-        <v>953.1195238773823</v>
+        <v>959.9693713769855</v>
       </c>
       <c r="R5">
-        <v>953.1195238773823</v>
+        <v>8639.724342392868</v>
       </c>
       <c r="S5">
-        <v>0.04123652643963527</v>
+        <v>0.04013357267184083</v>
       </c>
       <c r="T5">
-        <v>0.04123652643963527</v>
+        <v>0.04013357267184083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.787273623607</v>
+        <v>47.00186300000001</v>
       </c>
       <c r="H6">
-        <v>46.787273623607</v>
+        <v>141.005589</v>
       </c>
       <c r="I6">
-        <v>0.1927063335898</v>
+        <v>0.1901796115079644</v>
       </c>
       <c r="J6">
-        <v>0.1927063335898</v>
+        <v>0.1901796115079644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.635712523576951</v>
+        <v>10.903459</v>
       </c>
       <c r="N6">
-        <v>9.635712523576951</v>
+        <v>32.71037699999999</v>
       </c>
       <c r="O6">
-        <v>0.1012162619704202</v>
+        <v>0.1126589908376025</v>
       </c>
       <c r="P6">
-        <v>0.1012162619704202</v>
+        <v>0.1126589908376026</v>
       </c>
       <c r="Q6">
-        <v>450.8287183990115</v>
+        <v>512.4828861441169</v>
       </c>
       <c r="R6">
-        <v>450.8287183990115</v>
+        <v>4612.345975297053</v>
       </c>
       <c r="S6">
-        <v>0.01950501474398438</v>
+        <v>0.02142544311037458</v>
       </c>
       <c r="T6">
-        <v>0.01950501474398438</v>
+        <v>0.02142544311037458</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.0447427365674</v>
+        <v>45.24256366666666</v>
       </c>
       <c r="H7">
-        <v>45.0447427365674</v>
+        <v>135.727691</v>
       </c>
       <c r="I7">
-        <v>0.1855292379310577</v>
+        <v>0.1830611093383896</v>
       </c>
       <c r="J7">
-        <v>0.1855292379310577</v>
+        <v>0.1830611093383897</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.601816734156</v>
+        <v>19.78396633333334</v>
       </c>
       <c r="N7">
-        <v>19.601816734156</v>
+        <v>59.351899</v>
       </c>
       <c r="O7">
-        <v>0.2059030520893949</v>
+        <v>0.2044160189787881</v>
       </c>
       <c r="P7">
-        <v>0.2059030520893949</v>
+        <v>0.2044160189787881</v>
       </c>
       <c r="Q7">
-        <v>882.9587919593988</v>
+        <v>895.0773564150232</v>
       </c>
       <c r="R7">
-        <v>882.9587919593988</v>
+        <v>8055.696207735209</v>
       </c>
       <c r="S7">
-        <v>0.03820103634182431</v>
+        <v>0.03742062320079426</v>
       </c>
       <c r="T7">
-        <v>0.03820103634182431</v>
+        <v>0.03742062320079427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.0447427365674</v>
+        <v>45.24256366666666</v>
       </c>
       <c r="H8">
-        <v>45.0447427365674</v>
+        <v>135.727691</v>
       </c>
       <c r="I8">
-        <v>0.1855292379310577</v>
+        <v>0.1830611093383896</v>
       </c>
       <c r="J8">
-        <v>0.1855292379310577</v>
+        <v>0.1830611093383897</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.1346428856231</v>
+        <v>21.164404</v>
       </c>
       <c r="N8">
-        <v>21.1346428856231</v>
+        <v>63.493212</v>
       </c>
       <c r="O8">
-        <v>0.2220042934789016</v>
+        <v>0.2186792646553098</v>
       </c>
       <c r="P8">
-        <v>0.2220042934789016</v>
+        <v>0.2186792646553098</v>
       </c>
       <c r="Q8">
-        <v>952.0045516121171</v>
+        <v>957.5318954370546</v>
       </c>
       <c r="R8">
-        <v>952.0045516121171</v>
+        <v>8617.787058933491</v>
       </c>
       <c r="S8">
-        <v>0.04118828738656349</v>
+        <v>0.04003166877710431</v>
       </c>
       <c r="T8">
-        <v>0.04118828738656349</v>
+        <v>0.04003166877710432</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.0447427365674</v>
+        <v>45.24256366666666</v>
       </c>
       <c r="H9">
-        <v>45.0447427365674</v>
+        <v>135.727691</v>
       </c>
       <c r="I9">
-        <v>0.1855292379310577</v>
+        <v>0.1830611093383896</v>
       </c>
       <c r="J9">
-        <v>0.1855292379310577</v>
+        <v>0.1830611093383897</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.4557393890238</v>
+        <v>24.506957</v>
       </c>
       <c r="N9">
-        <v>24.4557393890238</v>
+        <v>73.520871</v>
       </c>
       <c r="O9">
-        <v>0.2568900347144099</v>
+        <v>0.2532158871896084</v>
       </c>
       <c r="P9">
-        <v>0.2568900347144099</v>
+        <v>0.2532158871896084</v>
       </c>
       <c r="Q9">
-        <v>1101.602489211115</v>
+        <v>1108.757562348762</v>
       </c>
       <c r="R9">
-        <v>1101.602489211115</v>
+        <v>9978.81806113886</v>
       </c>
       <c r="S9">
-        <v>0.04766061237264741</v>
+        <v>0.04635398121103423</v>
       </c>
       <c r="T9">
-        <v>0.04766061237264741</v>
+        <v>0.04635398121103426</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.0447427365674</v>
+        <v>45.24256366666666</v>
       </c>
       <c r="H10">
-        <v>45.0447427365674</v>
+        <v>135.727691</v>
       </c>
       <c r="I10">
-        <v>0.1855292379310577</v>
+        <v>0.1830611093383896</v>
       </c>
       <c r="J10">
-        <v>0.1855292379310577</v>
+        <v>0.1830611093383897</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.3713413939229</v>
+        <v>20.42407066666667</v>
       </c>
       <c r="N10">
-        <v>20.3713413939229</v>
+        <v>61.272212</v>
       </c>
       <c r="O10">
-        <v>0.2139863577468733</v>
+        <v>0.2110298383386912</v>
       </c>
       <c r="P10">
-        <v>0.2139863577468733</v>
+        <v>0.2110298383386912</v>
       </c>
       <c r="Q10">
-        <v>917.6218322880434</v>
+        <v>924.0373174691656</v>
       </c>
       <c r="R10">
-        <v>917.6218322880434</v>
+        <v>8316.335857222492</v>
       </c>
       <c r="S10">
-        <v>0.03970072588042008</v>
+        <v>0.03863135630978183</v>
       </c>
       <c r="T10">
-        <v>0.03970072588042008</v>
+        <v>0.03863135630978184</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.0447427365674</v>
+        <v>45.24256366666666</v>
       </c>
       <c r="H11">
-        <v>45.0447427365674</v>
+        <v>135.727691</v>
       </c>
       <c r="I11">
-        <v>0.1855292379310577</v>
+        <v>0.1830611093383896</v>
       </c>
       <c r="J11">
-        <v>0.1855292379310577</v>
+        <v>0.1830611093383897</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.635712523576951</v>
+        <v>10.903459</v>
       </c>
       <c r="N11">
-        <v>9.635712523576951</v>
+        <v>32.71037699999999</v>
       </c>
       <c r="O11">
-        <v>0.1012162619704202</v>
+        <v>0.1126589908376025</v>
       </c>
       <c r="P11">
-        <v>0.1012162619704202</v>
+        <v>0.1126589908376026</v>
       </c>
       <c r="Q11">
-        <v>434.0381917080444</v>
+        <v>493.3004379943895</v>
       </c>
       <c r="R11">
-        <v>434.0381917080444</v>
+        <v>4439.703941949506</v>
       </c>
       <c r="S11">
-        <v>0.01877857594960235</v>
+        <v>0.020623479839675</v>
       </c>
       <c r="T11">
-        <v>0.01877857594960235</v>
+        <v>0.020623479839675</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>64.5314367145036</v>
+        <v>64.67966699999999</v>
       </c>
       <c r="H12">
-        <v>64.5314367145036</v>
+        <v>194.039001</v>
       </c>
       <c r="I12">
-        <v>0.2657905795190358</v>
+        <v>0.2617077953383359</v>
       </c>
       <c r="J12">
-        <v>0.2657905795190358</v>
+        <v>0.261707795338336</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.601816734156</v>
+        <v>19.78396633333334</v>
       </c>
       <c r="N12">
-        <v>19.601816734156</v>
+        <v>59.351899</v>
       </c>
       <c r="O12">
-        <v>0.2059030520893949</v>
+        <v>0.2044160189787881</v>
       </c>
       <c r="P12">
-        <v>0.2059030520893949</v>
+        <v>0.2044160189787881</v>
       </c>
       <c r="Q12">
-        <v>1264.933396069486</v>
+        <v>1279.620354379211</v>
       </c>
       <c r="R12">
-        <v>1264.933396069486</v>
+        <v>11516.5831894129</v>
       </c>
       <c r="S12">
-        <v>0.05472709153957848</v>
+        <v>0.05349726565877807</v>
       </c>
       <c r="T12">
-        <v>0.05472709153957848</v>
+        <v>0.05349726565877808</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>64.5314367145036</v>
+        <v>64.67966699999999</v>
       </c>
       <c r="H13">
-        <v>64.5314367145036</v>
+        <v>194.039001</v>
       </c>
       <c r="I13">
-        <v>0.2657905795190358</v>
+        <v>0.2617077953383359</v>
       </c>
       <c r="J13">
-        <v>0.2657905795190358</v>
+        <v>0.261707795338336</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.1346428856231</v>
+        <v>21.164404</v>
       </c>
       <c r="N13">
-        <v>21.1346428856231</v>
+        <v>63.493212</v>
       </c>
       <c r="O13">
-        <v>0.2220042934789016</v>
+        <v>0.2186792646553098</v>
       </c>
       <c r="P13">
-        <v>0.2220042934789016</v>
+        <v>0.2186792646553098</v>
       </c>
       <c r="Q13">
-        <v>1363.848869857221</v>
+        <v>1368.906602973468</v>
       </c>
       <c r="R13">
-        <v>1363.848869857221</v>
+        <v>12320.15942676121</v>
       </c>
       <c r="S13">
-        <v>0.05900664981947135</v>
+        <v>0.0572300682391496</v>
       </c>
       <c r="T13">
-        <v>0.05900664981947135</v>
+        <v>0.05723006823914963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>64.5314367145036</v>
+        <v>64.67966699999999</v>
       </c>
       <c r="H14">
-        <v>64.5314367145036</v>
+        <v>194.039001</v>
       </c>
       <c r="I14">
-        <v>0.2657905795190358</v>
+        <v>0.2617077953383359</v>
       </c>
       <c r="J14">
-        <v>0.2657905795190358</v>
+        <v>0.261707795338336</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.4557393890238</v>
+        <v>24.506957</v>
       </c>
       <c r="N14">
-        <v>24.4557393890238</v>
+        <v>73.520871</v>
       </c>
       <c r="O14">
-        <v>0.2568900347144099</v>
+        <v>0.2532158871896084</v>
       </c>
       <c r="P14">
-        <v>0.2568900347144099</v>
+        <v>0.2532158871896084</v>
       </c>
       <c r="Q14">
-        <v>1578.163998689182</v>
+        <v>1585.101817943319</v>
       </c>
       <c r="R14">
-        <v>1578.163998689182</v>
+        <v>14265.91636148987</v>
       </c>
       <c r="S14">
-        <v>0.06827895119940822</v>
+        <v>0.06626857158103318</v>
       </c>
       <c r="T14">
-        <v>0.06827895119940822</v>
+        <v>0.06626857158103321</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>64.5314367145036</v>
+        <v>64.67966699999999</v>
       </c>
       <c r="H15">
-        <v>64.5314367145036</v>
+        <v>194.039001</v>
       </c>
       <c r="I15">
-        <v>0.2657905795190358</v>
+        <v>0.2617077953383359</v>
       </c>
       <c r="J15">
-        <v>0.2657905795190358</v>
+        <v>0.261707795338336</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.3713413939229</v>
+        <v>20.42407066666667</v>
       </c>
       <c r="N15">
-        <v>20.3713413939229</v>
+        <v>61.272212</v>
       </c>
       <c r="O15">
-        <v>0.2139863577468733</v>
+        <v>0.2110298383386912</v>
       </c>
       <c r="P15">
-        <v>0.2139863577468733</v>
+        <v>0.2110298383386912</v>
       </c>
       <c r="Q15">
-        <v>1314.591927951483</v>
+        <v>1321.022089504468</v>
       </c>
       <c r="R15">
-        <v>1314.591927951483</v>
+        <v>11889.19880554021</v>
       </c>
       <c r="S15">
-        <v>0.05687555803470917</v>
+        <v>0.0552281537422243</v>
       </c>
       <c r="T15">
-        <v>0.05687555803470917</v>
+        <v>0.05522815374222433</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>64.5314367145036</v>
+        <v>64.67966699999999</v>
       </c>
       <c r="H16">
-        <v>64.5314367145036</v>
+        <v>194.039001</v>
       </c>
       <c r="I16">
-        <v>0.2657905795190358</v>
+        <v>0.2617077953383359</v>
       </c>
       <c r="J16">
-        <v>0.2657905795190358</v>
+        <v>0.261707795338336</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.635712523576951</v>
+        <v>10.903459</v>
       </c>
       <c r="N16">
-        <v>9.635712523576951</v>
+        <v>32.71037699999999</v>
       </c>
       <c r="O16">
-        <v>0.1012162619704202</v>
+        <v>0.1126589908376025</v>
       </c>
       <c r="P16">
-        <v>0.1012162619704202</v>
+        <v>0.1126589908376026</v>
       </c>
       <c r="Q16">
-        <v>621.8063729143557</v>
+        <v>705.2320972681529</v>
       </c>
       <c r="R16">
-        <v>621.8063729143557</v>
+        <v>6347.088875413376</v>
       </c>
       <c r="S16">
-        <v>0.02690232892586852</v>
+        <v>0.02948373611715075</v>
       </c>
       <c r="T16">
-        <v>0.02690232892586852</v>
+        <v>0.02948373611715076</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>59.3319667981657</v>
+        <v>59.72524266666667</v>
       </c>
       <c r="H17">
-        <v>59.3319667981657</v>
+        <v>179.175728</v>
       </c>
       <c r="I17">
-        <v>0.2443751238494328</v>
+        <v>0.2416611326143725</v>
       </c>
       <c r="J17">
-        <v>0.2443751238494328</v>
+        <v>0.2416611326143725</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.601816734156</v>
+        <v>19.78396633333334</v>
       </c>
       <c r="N17">
-        <v>19.601816734156</v>
+        <v>59.351899</v>
       </c>
       <c r="O17">
-        <v>0.2059030520893949</v>
+        <v>0.2044160189787881</v>
       </c>
       <c r="P17">
-        <v>0.2059030520893949</v>
+        <v>0.2044160189787881</v>
       </c>
       <c r="Q17">
-        <v>1163.014339654673</v>
+        <v>1181.602190167497</v>
       </c>
       <c r="R17">
-        <v>1163.014339654673</v>
+        <v>10634.41971150747</v>
       </c>
       <c r="S17">
-        <v>0.0503175838553221</v>
+        <v>0.04939940667093499</v>
       </c>
       <c r="T17">
-        <v>0.0503175838553221</v>
+        <v>0.049399406670935</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>59.3319667981657</v>
+        <v>59.72524266666667</v>
       </c>
       <c r="H18">
-        <v>59.3319667981657</v>
+        <v>179.175728</v>
       </c>
       <c r="I18">
-        <v>0.2443751238494328</v>
+        <v>0.2416611326143725</v>
       </c>
       <c r="J18">
-        <v>0.2443751238494328</v>
+        <v>0.2416611326143725</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.1346428856231</v>
+        <v>21.164404</v>
       </c>
       <c r="N18">
-        <v>21.1346428856231</v>
+        <v>63.493212</v>
       </c>
       <c r="O18">
-        <v>0.2220042934789016</v>
+        <v>0.2186792646553098</v>
       </c>
       <c r="P18">
-        <v>0.2220042934789016</v>
+        <v>0.2186792646553098</v>
       </c>
       <c r="Q18">
-        <v>1253.959929980879</v>
+        <v>1264.049164795371</v>
       </c>
       <c r="R18">
-        <v>1253.959929980879</v>
+        <v>11376.44248315833</v>
       </c>
       <c r="S18">
-        <v>0.05425232671401241</v>
+        <v>0.05284627877588027</v>
       </c>
       <c r="T18">
-        <v>0.05425232671401241</v>
+        <v>0.05284627877588028</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>59.3319667981657</v>
+        <v>59.72524266666667</v>
       </c>
       <c r="H19">
-        <v>59.3319667981657</v>
+        <v>179.175728</v>
       </c>
       <c r="I19">
-        <v>0.2443751238494328</v>
+        <v>0.2416611326143725</v>
       </c>
       <c r="J19">
-        <v>0.2443751238494328</v>
+        <v>0.2416611326143725</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.4557393890238</v>
+        <v>24.506957</v>
       </c>
       <c r="N19">
-        <v>24.4557393890238</v>
+        <v>73.520871</v>
       </c>
       <c r="O19">
-        <v>0.2568900347144099</v>
+        <v>0.2532158871896084</v>
       </c>
       <c r="P19">
-        <v>0.2568900347144099</v>
+        <v>0.2532158871896084</v>
       </c>
       <c r="Q19">
-        <v>1451.007117454153</v>
+        <v>1463.683953846565</v>
       </c>
       <c r="R19">
-        <v>1451.007117454153</v>
+        <v>13173.15558461909</v>
       </c>
       <c r="S19">
-        <v>0.06277753404901899</v>
+        <v>0.06119243809419393</v>
       </c>
       <c r="T19">
-        <v>0.06277753404901899</v>
+        <v>0.06119243809419395</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>59.3319667981657</v>
+        <v>59.72524266666667</v>
       </c>
       <c r="H20">
-        <v>59.3319667981657</v>
+        <v>179.175728</v>
       </c>
       <c r="I20">
-        <v>0.2443751238494328</v>
+        <v>0.2416611326143725</v>
       </c>
       <c r="J20">
-        <v>0.2443751238494328</v>
+        <v>0.2416611326143725</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.3713413939229</v>
+        <v>20.42407066666667</v>
       </c>
       <c r="N20">
-        <v>20.3713413939229</v>
+        <v>61.272212</v>
       </c>
       <c r="O20">
-        <v>0.2139863577468733</v>
+        <v>0.2110298383386912</v>
       </c>
       <c r="P20">
-        <v>0.2139863577468733</v>
+        <v>0.2110298383386912</v>
       </c>
       <c r="Q20">
-        <v>1208.671751218332</v>
+        <v>1219.832576807815</v>
       </c>
       <c r="R20">
-        <v>1208.671751218332</v>
+        <v>10978.49319127033</v>
       </c>
       <c r="S20">
-        <v>0.05229294267648121</v>
+        <v>0.05099770974835603</v>
       </c>
       <c r="T20">
-        <v>0.05229294267648121</v>
+        <v>0.05099770974835604</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>59.3319667981657</v>
+        <v>59.72524266666667</v>
       </c>
       <c r="H21">
-        <v>59.3319667981657</v>
+        <v>179.175728</v>
       </c>
       <c r="I21">
-        <v>0.2443751238494328</v>
+        <v>0.2416611326143725</v>
       </c>
       <c r="J21">
-        <v>0.2443751238494328</v>
+        <v>0.2416611326143725</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.635712523576951</v>
+        <v>10.903459</v>
       </c>
       <c r="N21">
-        <v>9.635712523576951</v>
+        <v>32.71037699999999</v>
       </c>
       <c r="O21">
-        <v>0.1012162619704202</v>
+        <v>0.1126589908376025</v>
       </c>
       <c r="P21">
-        <v>0.1012162619704202</v>
+        <v>0.1126589908376026</v>
       </c>
       <c r="Q21">
-        <v>571.7057755255371</v>
+        <v>651.2117346810505</v>
       </c>
       <c r="R21">
-        <v>571.7057755255371</v>
+        <v>5860.905612129454</v>
       </c>
       <c r="S21">
-        <v>0.02473473655459807</v>
+        <v>0.02722529932500724</v>
       </c>
       <c r="T21">
-        <v>0.02473473655459807</v>
+        <v>0.02722529932500725</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.0951140553232</v>
+        <v>30.49525833333333</v>
       </c>
       <c r="H22">
-        <v>27.0951140553232</v>
+        <v>91.48577499999999</v>
       </c>
       <c r="I22">
-        <v>0.1115987251106737</v>
+        <v>0.1233903512009374</v>
       </c>
       <c r="J22">
-        <v>0.1115987251106737</v>
+        <v>0.1233903512009374</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>19.601816734156</v>
+        <v>19.78396633333334</v>
       </c>
       <c r="N22">
-        <v>19.601816734156</v>
+        <v>59.351899</v>
       </c>
       <c r="O22">
-        <v>0.2059030520893949</v>
+        <v>0.2044160189787881</v>
       </c>
       <c r="P22">
-        <v>0.2059030520893949</v>
+        <v>0.2044160189787881</v>
       </c>
       <c r="Q22">
-        <v>531.1134601034997</v>
+        <v>603.3171641929695</v>
       </c>
       <c r="R22">
-        <v>531.1134601034997</v>
+        <v>5429.854477736724</v>
       </c>
       <c r="S22">
-        <v>0.02297851810957312</v>
+        <v>0.02522296437289015</v>
       </c>
       <c r="T22">
-        <v>0.02297851810957312</v>
+        <v>0.02522296437289016</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.0951140553232</v>
+        <v>30.49525833333333</v>
       </c>
       <c r="H23">
-        <v>27.0951140553232</v>
+        <v>91.48577499999999</v>
       </c>
       <c r="I23">
-        <v>0.1115987251106737</v>
+        <v>0.1233903512009374</v>
       </c>
       <c r="J23">
-        <v>0.1115987251106737</v>
+        <v>0.1233903512009374</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.1346428856231</v>
+        <v>21.164404</v>
       </c>
       <c r="N23">
-        <v>21.1346428856231</v>
+        <v>63.493212</v>
       </c>
       <c r="O23">
-        <v>0.2220042934789016</v>
+        <v>0.2186792646553098</v>
       </c>
       <c r="P23">
-        <v>0.2220042934789016</v>
+        <v>0.2186792646553098</v>
       </c>
       <c r="Q23">
-        <v>572.645559504483</v>
+        <v>645.4139674510333</v>
       </c>
       <c r="R23">
-        <v>572.645559504483</v>
+        <v>5808.7257070593</v>
       </c>
       <c r="S23">
-        <v>0.02477539612134128</v>
+        <v>0.02698291126618142</v>
       </c>
       <c r="T23">
-        <v>0.02477539612134128</v>
+        <v>0.02698291126618142</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.0951140553232</v>
+        <v>30.49525833333333</v>
       </c>
       <c r="H24">
-        <v>27.0951140553232</v>
+        <v>91.48577499999999</v>
       </c>
       <c r="I24">
-        <v>0.1115987251106737</v>
+        <v>0.1233903512009374</v>
       </c>
       <c r="J24">
-        <v>0.1115987251106737</v>
+        <v>0.1233903512009374</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.4557393890238</v>
+        <v>24.506957</v>
       </c>
       <c r="N24">
-        <v>24.4557393890238</v>
+        <v>73.520871</v>
       </c>
       <c r="O24">
-        <v>0.2568900347144099</v>
+        <v>0.2532158871896084</v>
       </c>
       <c r="P24">
-        <v>0.2568900347144099</v>
+        <v>0.2532158871896084</v>
       </c>
       <c r="Q24">
-        <v>662.63104805286</v>
+        <v>747.3459846788916</v>
       </c>
       <c r="R24">
-        <v>662.63104805286</v>
+        <v>6726.113862110024</v>
       </c>
       <c r="S24">
-        <v>0.02866860036776486</v>
+        <v>0.03124439724998273</v>
       </c>
       <c r="T24">
-        <v>0.02866860036776486</v>
+        <v>0.03124439724998274</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.0951140553232</v>
+        <v>30.49525833333333</v>
       </c>
       <c r="H25">
-        <v>27.0951140553232</v>
+        <v>91.48577499999999</v>
       </c>
       <c r="I25">
-        <v>0.1115987251106737</v>
+        <v>0.1233903512009374</v>
       </c>
       <c r="J25">
-        <v>0.1115987251106737</v>
+        <v>0.1233903512009374</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.3713413939229</v>
+        <v>20.42407066666667</v>
       </c>
       <c r="N25">
-        <v>20.3713413939229</v>
+        <v>61.272212</v>
       </c>
       <c r="O25">
-        <v>0.2139863577468733</v>
+        <v>0.2110298383386912</v>
       </c>
       <c r="P25">
-        <v>0.2139863577468733</v>
+        <v>0.2110298383386912</v>
       </c>
       <c r="Q25">
-        <v>551.9638185282677</v>
+        <v>622.8373111982554</v>
       </c>
       <c r="R25">
-        <v>551.9638185282677</v>
+        <v>5605.535800784299</v>
       </c>
       <c r="S25">
-        <v>0.02388060471562761</v>
+        <v>0.02603904586648815</v>
       </c>
       <c r="T25">
-        <v>0.02388060471562761</v>
+        <v>0.02603904586648816</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.0951140553232</v>
+        <v>30.49525833333333</v>
       </c>
       <c r="H26">
-        <v>27.0951140553232</v>
+        <v>91.48577499999999</v>
       </c>
       <c r="I26">
-        <v>0.1115987251106737</v>
+        <v>0.1233903512009374</v>
       </c>
       <c r="J26">
-        <v>0.1115987251106737</v>
+        <v>0.1233903512009374</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.635712523576951</v>
+        <v>10.903459</v>
       </c>
       <c r="N26">
-        <v>9.635712523576951</v>
+        <v>32.71037699999999</v>
       </c>
       <c r="O26">
-        <v>0.1012162619704202</v>
+        <v>0.1126589908376025</v>
       </c>
       <c r="P26">
-        <v>0.1012162619704202</v>
+        <v>0.1126589908376026</v>
       </c>
       <c r="Q26">
-        <v>261.0807298306236</v>
+        <v>332.5037989319082</v>
       </c>
       <c r="R26">
-        <v>261.0807298306236</v>
+        <v>2992.534190387174</v>
       </c>
       <c r="S26">
-        <v>0.01129560579636686</v>
+        <v>0.01390103244539497</v>
       </c>
       <c r="T26">
-        <v>0.01129560579636686</v>
+        <v>0.01390103244539497</v>
       </c>
     </row>
   </sheetData>
